--- a/Malaria data 2022.xlsx
+++ b/Malaria data 2022.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analyst\MALARIA ANALYTICS\2022\TOTAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analyst\MALARIA ANALYTICS\TOTALS &amp; CORDINATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A5ABE-853C-48FD-AC2B-3A815D9B2319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F91C6D-3209-4B1F-83AA-707858DFE768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="7" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="249">
   <si>
     <t>orgunitlevel2</t>
   </si>
@@ -569,9 +569,6 @@
     <t>Zombo District</t>
   </si>
   <si>
-    <t xml:space="preserve">GRAND TOTAL </t>
-  </si>
-  <si>
     <t>0-28 DAYS MALE</t>
   </si>
   <si>
@@ -683,65 +680,6 @@
     <t>TOTAL PREG</t>
   </si>
   <si>
-    <t xml:space="preserve">West nile 0-28 days </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankole </t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>10-19 YRS BY REGION</t>
-  </si>
-  <si>
-    <t>West nile</t>
-  </si>
-  <si>
-    <t>0-28 DAYS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20 + YEARS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">West nile </t>
-  </si>
-  <si>
-    <t>29 DAYS TO 4YRS</t>
-  </si>
-  <si>
-    <t>5-9YRS TOTAL</t>
-  </si>
-  <si>
-    <t>&lt;5YRS CASES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREG CASES  BY REGION </t>
-  </si>
-  <si>
-    <t>TOTAL CASES BY REGION</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -850,6 +788,9 @@
   </si>
   <si>
     <t>CORDINATES (LATITUDE ° N)</t>
+  </si>
+  <si>
+    <t>GRAND TOTALS</t>
   </si>
 </sst>
 </file>
@@ -12099,8 +12040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944F821F-B4FB-45D2-AC14-8156598873E5}">
   <dimension ref="A3:I140"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12118,31 +12059,31 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -16088,7 +16029,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B140">
         <v>5126574</v>
@@ -16127,8 +16068,8 @@
   </sheetPr>
   <dimension ref="A1:BN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="BN11" sqref="BN11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16150,136 +16091,136 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM1" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AV1" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AW1" s="2" t="s">
         <v>18</v>
@@ -16288,52 +16229,52 @@
         <v>19</v>
       </c>
       <c r="AY1" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AZ1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA1" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="BA1" s="14" t="s">
+      <c r="BB1" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BC1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BE1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="BF1" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="BG1" s="22" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="BH1" s="22" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="BI1" s="22" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="BJ1" s="22" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="BK1" s="29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="BL1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BM1" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="BM1" s="14" t="s">
-        <v>261</v>
-      </c>
       <c r="BN1" s="14" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17201,7 +17142,7 @@
         <v>2.9251</v>
       </c>
       <c r="BN5" s="28" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19821,7 +19762,7 @@
         <v>0.53159999999999996</v>
       </c>
       <c r="BN17" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20695,7 +20636,7 @@
         <v>0.28270000000000001</v>
       </c>
       <c r="BN21" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -22220,7 +22161,7 @@
         <v>0.68520000000000003</v>
       </c>
       <c r="BN28" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -27673,7 +27614,7 @@
         <v>0.68330000000000002</v>
       </c>
       <c r="BN53" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -27892,7 +27833,7 @@
         <v>1.6325000000000001</v>
       </c>
       <c r="BN54" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -30293,7 +30234,7 @@
         <v>0.81950000000000001</v>
       </c>
       <c r="BN65" s="28" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -31386,7 +31327,7 @@
         <v>0.1699</v>
       </c>
       <c r="BN70" s="28" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -34882,7 +34823,7 @@
         <v>2.3031000000000001</v>
       </c>
       <c r="BN86" s="28" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -35101,7 +35042,7 @@
         <v>3.0352000000000001</v>
       </c>
       <c r="BN87" s="28" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -37940,7 +37881,7 @@
         <v>0.82709999999999995</v>
       </c>
       <c r="BN100" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -40562,7 +40503,7 @@
         <v>0.61209999999999998</v>
       </c>
       <c r="BN112" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -42314,7 +42255,7 @@
         <v>0.28349999999999997</v>
       </c>
       <c r="BN120" s="28" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
@@ -51470,7 +51411,7 @@
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="5" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="D163" s="6">
         <f>SUM(D2:D162)</f>
@@ -51646,9 +51587,7 @@
     </row>
     <row r="164" spans="1:66" ht="13" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="18" t="s">
-        <v>224</v>
-      </c>
+      <c r="B164" s="18"/>
       <c r="C164" s="3"/>
       <c r="BC164" s="13"/>
       <c r="BD164" s="13"/>
@@ -51660,1110 +51599,338 @@
       <c r="BJ164" s="13"/>
     </row>
     <row r="165" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C165">
-        <f>SUMIF(A2:A162, "West Nile", F2:F162)</f>
-        <v>3408</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H165" s="17" t="s">
-        <v>227</v>
-      </c>
+      <c r="B165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="H165" s="17"/>
       <c r="BG165" s="13"/>
       <c r="BH165" s="13"/>
       <c r="BI165" s="13"/>
       <c r="BJ165" s="13"/>
     </row>
     <row r="166" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166">
-        <f>SUMIF(A2:A162, "Acholi", F2:F162)</f>
-        <v>2030</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F166">
-        <f>SUMIF(A1:A162, "West Nile", L1:L162)</f>
-        <v>1227184</v>
-      </c>
-      <c r="H166" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="I166">
-        <f>SUMIF(A1:A162, "West Nile", O1:O162)</f>
-        <v>1146066</v>
-      </c>
-      <c r="K166" s="19" t="s">
-        <v>231</v>
-      </c>
+      <c r="B166" s="3"/>
+      <c r="E166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="K166" s="19"/>
       <c r="BG166" s="13"/>
       <c r="BH166" s="13"/>
       <c r="BI166" s="13"/>
       <c r="BJ166" s="13"/>
     </row>
     <row r="167" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C167">
-        <f>SUMIF(A1:A162, "Ankole", F1:F162)</f>
-        <v>4056</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F167">
-        <f>SUMIF(A1:A162, "Acholi", L1:L162)</f>
-        <v>871730</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I167">
-        <f>SUMIF(A1:A162, "Acholi", O1:O162)</f>
-        <v>722748</v>
-      </c>
-      <c r="K167" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="L167">
-        <f>SUMIF(A1:A162, "West Nile", BB1:BB162)</f>
-        <v>4659410</v>
-      </c>
+      <c r="B167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="K167" s="15"/>
       <c r="BG167" s="13"/>
       <c r="BH167" s="13"/>
       <c r="BI167" s="13"/>
       <c r="BJ167" s="13"/>
     </row>
     <row r="168" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C168">
-        <f>SUMIF(A2:A162, "Bugisu", F2:F162)</f>
-        <v>426</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F168">
-        <f>SUMIF(A1:A162, "Ankole", L1:L162)</f>
-        <v>589904</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I168">
-        <f>SUMIF(A1:A162, "Ankole", O1:O162)</f>
-        <v>208850</v>
-      </c>
-      <c r="K168" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L168">
-        <f>SUMIF(A1:A162, "Acholi", BB1:BB162)</f>
-        <v>3239594</v>
-      </c>
+      <c r="B168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="K168" s="3"/>
       <c r="BG168" s="13"/>
       <c r="BH168" s="13"/>
       <c r="BI168" s="13"/>
       <c r="BJ168" s="13"/>
     </row>
     <row r="169" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C169">
-        <f>SUMIF(A2:A162, "Busoga", F2:F162)</f>
-        <v>3252</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F169">
-        <f>SUMIF(A1:A162, "Bugisu", L1:L162)</f>
-        <v>383678</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I169">
-        <f>SUMIF(A1:A162, "Bugisu", O1:O162)</f>
-        <v>204402</v>
-      </c>
-      <c r="K169" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L169">
-        <f>SUMIF(A1:A162, "Ankole", BB1:BB162)</f>
-        <v>1478640</v>
-      </c>
+      <c r="B169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="K169" s="3"/>
       <c r="BG169" s="13"/>
       <c r="BH169" s="13"/>
       <c r="BI169" s="13"/>
       <c r="BJ169" s="13"/>
     </row>
     <row r="170" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C170">
-        <f>SUMIF(A2:A162, "Bukedi", F2:F162)</f>
-        <v>2934</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F170">
-        <f>SUMIF(A1:A162, "Busoga", L1:L162)</f>
-        <v>1310976</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I170">
-        <f>SUMIF(A1:A162, "Busoga", O1:O162)</f>
-        <v>1100448</v>
-      </c>
-      <c r="K170" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L170">
-        <f>SUMIF(A1:A162, "Bugisu", BB1:BB162)</f>
-        <v>988072</v>
-      </c>
+      <c r="B170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="K170" s="3"/>
       <c r="BG170" s="13"/>
       <c r="BH170" s="13"/>
       <c r="BI170" s="13"/>
       <c r="BJ170" s="13"/>
     </row>
     <row r="171" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C171">
-        <f>SUMIF(A2:A162, "Bunyoro", F2:F162)</f>
-        <v>812</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F171">
-        <f>SUMIF(A1:A162, "Bukedi", L1:L162)</f>
-        <v>823414</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I171">
-        <f>SUMIF(A1:A162, "Bukedi", O1:O162)</f>
-        <v>846850</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L171">
-        <f>SUMIF(A1:A162, "Busoga", BB1:BB162)</f>
-        <v>3951040</v>
-      </c>
+      <c r="B171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="K171" s="3"/>
       <c r="BG171" s="13"/>
       <c r="BH171" s="13"/>
       <c r="BI171" s="13"/>
       <c r="BJ171" s="13"/>
     </row>
     <row r="172" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C172">
-        <f>SUMIF(A2:A162, "Karamoja", F2:F162)</f>
-        <v>1310</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F172">
-        <f>SUMIF(A1:A162, "Bunyoro", L1:L162)</f>
-        <v>456426</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I172">
-        <f>SUMIF(A1:A162, "Bunyoro", O1:O162)</f>
-        <v>392238</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L172">
-        <f>SUMIF(A1:A162, "Bukedi", BB1:BB162)</f>
-        <v>3042110</v>
-      </c>
+      <c r="B172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="K172" s="3"/>
       <c r="BG172" s="13"/>
       <c r="BH172" s="13"/>
       <c r="BI172" s="13"/>
       <c r="BJ172" s="13"/>
     </row>
     <row r="173" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C173">
-        <f>SUMIF(A2:A162, "Kigezi", F2:F162)</f>
-        <v>158</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F173">
-        <f>SUMIF(A1:A162, "Karamoja", L1:L162)</f>
-        <v>304352</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I173">
-        <f>SUMIF(A1:A162, "Karamoja", O1:O162)</f>
-        <v>394606</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L173">
-        <f>SUMIF(A1:A162, "Bunyoro", BB1:BB162)</f>
-        <v>1541502</v>
-      </c>
+      <c r="B173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="K173" s="3"/>
       <c r="BG173" s="13"/>
       <c r="BH173" s="13"/>
       <c r="BI173" s="13"/>
       <c r="BJ173" s="13"/>
     </row>
     <row r="174" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C174">
-        <f>SUMIF(A2:A162, "Lango", F2:F162)</f>
-        <v>2270</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F174">
-        <f>SUMIF(A1:A162, "Kigezi", L1:L162)</f>
-        <v>139614</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I174">
-        <f>SUMIF(A1:A162, "Kigezi", O1:O162)</f>
-        <v>49510</v>
-      </c>
-      <c r="K174" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L174">
-        <f>SUMIF(A1:A162, "KARAMOJA", BB1:BB162)</f>
-        <v>1052738</v>
-      </c>
+      <c r="B174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="K174" s="3"/>
       <c r="BG174" s="13"/>
       <c r="BH174" s="13"/>
       <c r="BI174" s="13"/>
       <c r="BJ174" s="13"/>
     </row>
     <row r="175" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C175">
-        <f>SUMIF(A2:A162, "North Central", F2:F162)</f>
-        <v>2420</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F175">
-        <f>SUMIF(A1:A162, "Lango", L1:L162)</f>
-        <v>762378</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I175">
-        <f>SUMIF(A1:A162, "Lango", O1:O162)</f>
-        <v>572336</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L175">
-        <f>SUMIF(A1:A162, "KIGEZI", BB1:BB162)</f>
-        <v>338824</v>
-      </c>
+      <c r="B175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="K175" s="3"/>
       <c r="BG175" s="13"/>
       <c r="BH175" s="13"/>
       <c r="BI175" s="13"/>
       <c r="BJ175" s="13"/>
     </row>
     <row r="176" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C176">
-        <f>SUMIF(A2:A162, "South Central", F2:F162)</f>
-        <v>4144</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F176">
-        <f>SUMIF(A1:A162, "North Central", L1:L162)</f>
-        <v>863722</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I176">
-        <f>SUMIF(A1:A162, "North Central", O1:O162)</f>
-        <v>488290</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L176">
-        <f>SUMIF(A1:A162, "LANGO", BB1:BB162)</f>
-        <v>2465034</v>
-      </c>
+      <c r="B176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="K176" s="3"/>
       <c r="BG176" s="13"/>
       <c r="BH176" s="13"/>
       <c r="BI176" s="13"/>
       <c r="BJ176" s="13"/>
     </row>
     <row r="177" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C177">
-        <f>SUMIF(A2:A162, "Kampala", F2:F162)</f>
-        <v>5142</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F177">
-        <f>SUMIF(A1:A162, "South Central", L1:L162)</f>
-        <v>863072</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I177">
-        <f>SUMIF(A1:A162, "South Central", O1:O162)</f>
-        <v>433612</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L177">
-        <f>SUMIF(A1:A162, "NORTH CENTRAL", BB1:BB162)</f>
-        <v>2462162</v>
-      </c>
+      <c r="B177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="K177" s="3"/>
       <c r="BG177" s="13"/>
       <c r="BH177" s="13"/>
       <c r="BI177" s="13"/>
       <c r="BJ177" s="13"/>
     </row>
     <row r="178" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C178">
-        <f>SUMIF(A2:A162, "Teso", F2:F162)</f>
-        <v>1096</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F178">
-        <f>SUMIF(A1:A162, "Kampala", L1:L162)</f>
-        <v>277460</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I178">
-        <f>SUMIF(A1:A162, "Kampala", O1:O162)</f>
-        <v>106916</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L178">
-        <f>SUMIF(A1:A162, "South central", BB1:BB162)</f>
-        <v>2448686</v>
-      </c>
+      <c r="B178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="K178" s="3"/>
       <c r="BG178" s="13"/>
       <c r="BH178" s="13"/>
       <c r="BI178" s="13"/>
       <c r="BJ178" s="13"/>
     </row>
     <row r="179" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C179">
-        <f>SUMIF(A2:A162, "Tooro", F2:F162)</f>
-        <v>1960</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F179">
-        <f>SUMIF(A1:A162, "teso", L1:L162)</f>
-        <v>1066230</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I179">
-        <f>SUMIF(A1:A162, "teso", O1:O162)</f>
-        <v>473946</v>
-      </c>
-      <c r="K179" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L179">
-        <f>SUMIF(A1:A162, "kampala", BB1:BB162)</f>
-        <v>595104</v>
-      </c>
+      <c r="B179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="K179" s="3"/>
       <c r="BG179" s="13"/>
       <c r="BH179" s="13"/>
       <c r="BI179" s="13"/>
       <c r="BJ179" s="13"/>
     </row>
     <row r="180" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C180">
-        <f>SUM(C165:C179)</f>
-        <v>35418</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F180">
-        <f>SUMIF(A1:A162, "Tooro", L1:L162)</f>
-        <v>802000</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I180">
-        <f>SUMIF(A1:A162, "Tooro", O1:O162)</f>
-        <v>392252</v>
-      </c>
-      <c r="K180" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L180">
-        <f>SUMIF(A1:A162, "teso", BB1:BB162)</f>
-        <v>2764626</v>
-      </c>
+      <c r="B180" s="16"/>
+      <c r="E180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="K180" s="3"/>
       <c r="BG180" s="13"/>
       <c r="BH180" s="13"/>
       <c r="BI180" s="13"/>
       <c r="BJ180" s="13"/>
     </row>
     <row r="181" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F181">
-        <f>SUM(F166:F180)</f>
-        <v>10742140</v>
-      </c>
-      <c r="I181">
-        <f>SUM(I166:I180)</f>
-        <v>7533070</v>
-      </c>
-      <c r="K181" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L181">
-        <f>SUMIF(A1:A162, "tooro", BB1:BB162)</f>
-        <v>2109614</v>
-      </c>
+      <c r="K181" s="3"/>
       <c r="BG181" s="13"/>
       <c r="BH181" s="13"/>
       <c r="BI181" s="13"/>
       <c r="BJ181" s="13"/>
     </row>
     <row r="182" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="L182">
-        <f>SUM(L167:L181)</f>
-        <v>33137156</v>
-      </c>
+      <c r="B182" s="17"/>
       <c r="BG182" s="13"/>
       <c r="BH182" s="13"/>
       <c r="BI182" s="13"/>
       <c r="BJ182" s="13"/>
     </row>
     <row r="183" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C183">
-        <f>SUMIF(A1:A162, "West Nile", I1:I162)</f>
-        <v>1458996</v>
-      </c>
-      <c r="E183" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H183" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="K183" s="17" t="s">
-        <v>230</v>
-      </c>
+      <c r="B183" s="15"/>
+      <c r="E183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="K183" s="17"/>
       <c r="BG183" s="13"/>
       <c r="BH183" s="13"/>
       <c r="BI183" s="13"/>
       <c r="BJ183" s="13"/>
     </row>
     <row r="184" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C184">
-        <f>SUMIF(A1:A162, "Acholi", I1:I162)</f>
-        <v>1079498</v>
-      </c>
-      <c r="E184" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F184">
-        <f>SUMIF(A1:A162, "WeST nILE", R1:R162)</f>
-        <v>823756</v>
-      </c>
-      <c r="H184" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="I184">
-        <f>SUMIF(A1:A162, "West Nile", BE1:BE162)</f>
-        <v>1149474</v>
-      </c>
-      <c r="K184" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="L184">
-        <f>SUMIF(A1:A162, "West nILE", BF1:BF162)</f>
-        <v>99164</v>
-      </c>
-      <c r="M184">
-        <f>SUMIF(A1:A162, "", BF1:BF162)</f>
-        <v>0</v>
-      </c>
+      <c r="B184" s="3"/>
+      <c r="E184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="K184" s="15"/>
       <c r="BG184" s="13"/>
       <c r="BH184" s="13"/>
       <c r="BI184" s="13"/>
       <c r="BJ184" s="13"/>
     </row>
     <row r="185" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C185">
-        <f>SUMIF(A1:A162, "Ankole", I1:I162)</f>
-        <v>453824</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F185">
-        <f>SUMIF(A1:A162, "aCHOLI", R1:R162)</f>
-        <v>563588</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I185">
-        <f>SUMIF(A1:A162, "ACHOLI", BE1:BE162)</f>
-        <v>724778</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L185">
-        <f>SUMIF(A1:A162, "Acholi", BF1:BF162)</f>
-        <v>64404</v>
-      </c>
+      <c r="B185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="K185" s="3"/>
       <c r="BG185" s="13"/>
       <c r="BH185" s="13"/>
       <c r="BI185" s="13"/>
       <c r="BJ185" s="13"/>
     </row>
     <row r="186" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C186">
-        <f>SUMIF(A1:A162, "Bugisu", I1:I162)</f>
-        <v>253406</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F186">
-        <f>SUMIF(A1:A162, "Ankole", R1:R162)</f>
-        <v>222006</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I186">
-        <f>SUMIF(A1:A162, "Ankole", BE1:BE162)</f>
-        <v>212906</v>
-      </c>
-      <c r="K186" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L186">
-        <f>SUMIF(A1:A162, "ANkole", BF1:BF162)</f>
-        <v>14442</v>
-      </c>
+      <c r="B186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="K186" s="3"/>
       <c r="BG186" s="13"/>
       <c r="BH186" s="13"/>
       <c r="BI186" s="13"/>
       <c r="BJ186" s="13"/>
     </row>
     <row r="187" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C187">
-        <f>SUMIF(A1:A162, "Busoga", I1:I162)</f>
-        <v>857798</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F187">
-        <f>SUMIF(A1:A162, "BUGISU", R1:R162)</f>
-        <v>146160</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I187">
-        <f>SUMIF(A1:A162, "Bugisu", BE1:BE162)</f>
-        <v>204828</v>
-      </c>
-      <c r="K187" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L187">
-        <f>SUMIF(A1:A162, "bugisu", BF1:BF162)</f>
-        <v>28090</v>
-      </c>
+      <c r="B187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="K187" s="3"/>
       <c r="BG187" s="13"/>
       <c r="BH187" s="13"/>
       <c r="BI187" s="13"/>
       <c r="BJ187" s="13"/>
     </row>
     <row r="188" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C188">
-        <f>SUMIF(A1:A162, "Bukedi", I1:I162)</f>
-        <v>754798</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F188">
-        <f>SUMIF(A1:A162, "Busoga", R1:R162)</f>
-        <v>678566</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I188">
-        <f>SUMIF(A1:A162, "Busoga", BE1:BE162)</f>
-        <v>1103700</v>
-      </c>
-      <c r="K188" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L188">
-        <f>SUMIF(A1:A162, "Busoga", BF1:BF162)</f>
-        <v>150966</v>
-      </c>
+      <c r="B188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="K188" s="3"/>
       <c r="BG188" s="13"/>
       <c r="BH188" s="13"/>
       <c r="BI188" s="13"/>
       <c r="BJ188" s="13"/>
     </row>
     <row r="189" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C189">
-        <f>SUMIF(A1:A162, "Bunyoro", I1:I162)</f>
-        <v>430812</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F189">
-        <f>SUMIF(A1:A162, "Bukedi", R1:R162)</f>
-        <v>614114</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I189">
-        <f>SUMIF(A1:A162, "Bukedi", BE1:BE162)</f>
-        <v>849784</v>
-      </c>
-      <c r="K189" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L189">
-        <f>SUMIF(A1:A162, "Bukedi", BF1:BF162)</f>
-        <v>68532</v>
-      </c>
+      <c r="B189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="K189" s="3"/>
       <c r="BG189" s="13"/>
       <c r="BH189" s="13"/>
       <c r="BI189" s="13"/>
       <c r="BJ189" s="13"/>
     </row>
     <row r="190" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C190">
-        <f>SUMIF(A1:A162, "Karamoja", I1:I162)</f>
-        <v>204122</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F190">
-        <f>SUMIF(A1:A162, "Bunyoro", R1:R162)</f>
-        <v>261214</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I190">
-        <f>SUMIF(A1:A162, "Bunyoro", BE1:BE162)</f>
-        <v>393050</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L190">
-        <f>SUMIF(A1:A162, "Bunyoro", BF1:BF162)</f>
-        <v>56410</v>
-      </c>
+      <c r="B190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="K190" s="3"/>
       <c r="BG190" s="13"/>
       <c r="BH190" s="13"/>
       <c r="BI190" s="13"/>
       <c r="BJ190" s="13"/>
     </row>
     <row r="191" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C191">
-        <f>SUMIF(A1:A162, "Kigezi", I1:I162)</f>
-        <v>101260</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F191">
-        <f>SUMIF(A1:A162, "Karamoja", R1:R162)</f>
-        <v>148348</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I191">
-        <f>SUMIF(A1:A162, "Karamoja", BE1:BE162)</f>
-        <v>395916</v>
-      </c>
-      <c r="K191" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L191">
-        <f>SUMIF(A1:A162, "Karamoja", BF1:BF162)</f>
-        <v>20094</v>
-      </c>
+      <c r="B191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="K191" s="3"/>
       <c r="BG191" s="13"/>
       <c r="BH191" s="13"/>
       <c r="BI191" s="13"/>
       <c r="BJ191" s="13"/>
     </row>
     <row r="192" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C192">
-        <f>SUMIF(A1:A162, "LANGO", I1:I162)</f>
-        <v>724068</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F192">
-        <f>SUMIF(A1:A162, "Kigezi", R1:R162)</f>
-        <v>48282</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I192">
-        <f>SUMIF(A1:A162, "Kigezi", BE1:BE162)</f>
-        <v>49668</v>
-      </c>
-      <c r="K192" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L192">
-        <f>SUMIF(A1:A162, "Kigezi", BF1:BF162)</f>
-        <v>3366</v>
-      </c>
+      <c r="B192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="K192" s="3"/>
       <c r="BG192" s="13"/>
       <c r="BH192" s="13"/>
       <c r="BI192" s="13"/>
       <c r="BJ192" s="13"/>
     </row>
     <row r="193" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C193">
-        <f>SUMIF(A1:A162, "North central", I1:I162)</f>
-        <v>676306</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F193">
-        <f>SUMIF(A1:A162, "lango", R1:R162)</f>
-        <v>403982</v>
-      </c>
-      <c r="H193" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I193">
-        <f>SUMIF(A1:A162, "Lango", BE1:BE162)</f>
-        <v>574606</v>
-      </c>
-      <c r="K193" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L193">
-        <f>SUMIF(A1:A162, "Lango", BF1:BF162)</f>
-        <v>92368</v>
-      </c>
+      <c r="B193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="K193" s="3"/>
       <c r="BG193" s="13"/>
       <c r="BH193" s="13"/>
       <c r="BI193" s="13"/>
       <c r="BJ193" s="13"/>
     </row>
     <row r="194" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C194">
-        <f>SUMIF(A1:A162, "South Central", I1:I162)</f>
-        <v>716278</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F194">
-        <f>SUMIF(A1:A162, "north central", R1:R162)</f>
-        <v>431424</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I194">
-        <f>SUMIF(A1:A162, "North central", BE1:BE162)</f>
-        <v>490710</v>
-      </c>
-      <c r="K194" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L194">
-        <f>SUMIF(A1:A162, "NortH cENTRAL", BF1:BF162)</f>
-        <v>67736</v>
-      </c>
+      <c r="B194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="K194" s="3"/>
       <c r="BG194" s="13"/>
       <c r="BH194" s="13"/>
       <c r="BI194" s="13"/>
       <c r="BJ194" s="13"/>
     </row>
     <row r="195" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C195">
-        <f>SUMIF(A1:A162, "Kampala", I1:I162)</f>
-        <v>112712</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F195">
-        <f>SUMIF(A1:A162, "South CENTRAL", R1:R162)</f>
-        <v>431580</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I195">
-        <f>SUMIF(A1:A162, "South Central", BE1:BE162)</f>
-        <v>437756</v>
-      </c>
-      <c r="K195" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L195">
-        <f>SUMIF(A1:A162, "South Central", BF1:BF162)</f>
-        <v>35480</v>
-      </c>
+      <c r="B195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="K195" s="3"/>
       <c r="BG195" s="13"/>
       <c r="BH195" s="13"/>
       <c r="BI195" s="13"/>
       <c r="BJ195" s="13"/>
     </row>
     <row r="196" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C196">
-        <f>SUMIF(A1:A162, "Teso", I1:I162)</f>
-        <v>791810</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F196">
-        <f>SUMIF(A1:A162, "Kampala", R1:R162)</f>
-        <v>92874</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I196">
-        <f>SUMIF(A1:A162, "Kampala", BE1:BE162)</f>
-        <v>112058</v>
-      </c>
-      <c r="K196" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L196">
-        <f>SUMIF(A1:A162, "kampala", BF1:BF162)</f>
-        <v>9928</v>
-      </c>
+      <c r="B196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="K196" s="3"/>
       <c r="BG196" s="13"/>
       <c r="BH196" s="13"/>
       <c r="BI196" s="13"/>
       <c r="BJ196" s="13"/>
     </row>
     <row r="197" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C197">
-        <f>SUMIF(A1:A162, "Tooro", I1:I162)</f>
-        <v>590716</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F197">
-        <f>SUMIF(A1:A162, "Teso", R1:R162)</f>
-        <v>431544</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I197">
-        <f>SUMIF(A1:A162, "teso", BE1:BE162)</f>
-        <v>475042</v>
-      </c>
-      <c r="K197" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L197">
-        <f>SUMIF(A1:A162, "Teso", BF1:BF162)</f>
-        <v>80562</v>
-      </c>
+      <c r="B197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="K197" s="3"/>
       <c r="BG197" s="13"/>
       <c r="BH197" s="13"/>
       <c r="BI197" s="13"/>
       <c r="BJ197" s="13"/>
     </row>
     <row r="198" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C198">
-        <f>SUM(C183:C197)</f>
-        <v>9206404</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F198">
-        <f>SUMIF(A1:A162, "Tooro", R1:R162)</f>
-        <v>322686</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I198">
-        <f>SUMIF(A1:A162, "Tooro", BE1:BE162)</f>
-        <v>394212</v>
-      </c>
-      <c r="K198" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L198">
-        <f>SUMIF(A1:A162, "Tooro", BF1:BF162)</f>
-        <v>33808</v>
-      </c>
+      <c r="E198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="K198" s="3"/>
       <c r="BG198" s="13"/>
       <c r="BH198" s="13"/>
       <c r="BI198" s="13"/>
       <c r="BJ198" s="13"/>
     </row>
     <row r="199" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F199">
-        <f>SUM(F184:F198)</f>
-        <v>5620124</v>
-      </c>
-      <c r="I199">
-        <f>SUM(I184:I198)</f>
-        <v>7568488</v>
-      </c>
-      <c r="L199">
-        <f>SUM(L184:L198)</f>
-        <v>825350</v>
-      </c>
       <c r="BG199" s="13"/>
       <c r="BH199" s="13"/>
       <c r="BI199" s="13"/>
